--- a/data/hierarchy/hierarchy_code_by_sheet.xlsx
+++ b/data/hierarchy/hierarchy_code_by_sheet.xlsx
@@ -1878,7 +1878,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Reserves (or residential)</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Reserves (or residential)</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Reserves (or residential)</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Reserves (or residential)</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reserves (or residential)</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -13274,7 +13274,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -15846,7 +15846,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -20231,7 +20231,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Industry (or interest due) (or index)</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -24739,12 +24739,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.BR.ZS</t>
+          <t>TX.QTY.MRCH.XD.WD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bound rate, simple mean, all products (%)</t>
+          <t>Export volume index (2015 = 100)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -24759,12 +24759,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Exports</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Quantity (volume)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -24776,12 +24776,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.BC.ZS</t>
+          <t>TX.VAL.MRCH.XD.WD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Binding coverage, all products (%)</t>
+          <t>Export value index (2015 = 100)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -24796,12 +24796,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Exports</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -24813,12 +24813,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.WM.FN.ZS</t>
+          <t>TM.QTY.MRCH.XD.WD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tariff rate, most favored nation, weighted mean, all products (%)</t>
+          <t>Import volume index (2015 = 100)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -24833,12 +24833,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Quantity (volume)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -24850,12 +24850,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.IP.ZS</t>
+          <t>TM.TAX.MRCH.BR.ZS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Share of tariff lines with international peaks, all products (%)</t>
+          <t>Bound rate, simple mean, all products (%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -24870,12 +24870,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -24887,12 +24887,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.WM.AR.ZS</t>
+          <t>TM.TAX.MRCH.BC.ZS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tariff rate, applied, weighted mean, all products (%)</t>
+          <t>Binding coverage, all products (%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -24907,12 +24907,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -24924,12 +24924,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.SM.AR.ZS</t>
+          <t>TM.TAX.MRCH.WM.FN.ZS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tariff rate, applied, simple mean, all products (%)</t>
+          <t>Tariff rate, most favored nation, weighted mean, all products (%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -24944,12 +24944,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -24961,12 +24961,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.SR.ZS</t>
+          <t>TM.TAX.MRCH.IP.ZS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Share of tariff lines with specific rates, all products (%)</t>
+          <t>Share of tariff lines with international peaks, all products (%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -24981,12 +24981,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -24998,12 +24998,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TM.TAX.MRCH.SM.FN.ZS</t>
+          <t>TM.TAX.MRCH.WM.AR.ZS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tariff rate, most favored nation, simple mean, all products (%)</t>
+          <t>Tariff rate, applied, weighted mean, all products (%)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -25018,12 +25018,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -25035,12 +25035,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.IP.ZS</t>
+          <t>TM.TAX.MRCH.SM.AR.ZS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Share of tariff lines with international peaks, manufactured products (%)</t>
+          <t>Tariff rate, applied, simple mean, all products (%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -25055,29 +25055,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Goods (merchandise)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.BC.ZS</t>
+          <t>TM.TAX.MRCH.SR.ZS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Binding coverage, manufactured products (%)</t>
+          <t>Share of tariff lines with specific rates, all products (%)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -25092,29 +25092,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Goods (merchandise)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.WM.FN.ZS</t>
+          <t>TM.TAX.MRCH.SM.FN.ZS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tariff rate, most favored nation, weighted mean, manufactured products (%)</t>
+          <t>Tariff rate, most favored nation, simple mean, all products (%)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -25129,29 +25129,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Goods (merchandise)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.SM.FN.ZS</t>
+          <t>TM.TAX.MANF.IP.ZS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tariff rate, most favored nation, simple mean, manufactured products (%)</t>
+          <t>Share of tariff lines with international peaks, manufactured products (%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -25166,12 +25166,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -25183,12 +25183,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.WM.AR.ZS</t>
+          <t>TM.TAX.MANF.BC.ZS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tariff rate, applied, weighted mean, manufactured products (%)</t>
+          <t>Binding coverage, manufactured products (%)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -25203,12 +25203,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -25220,12 +25220,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.SM.AR.ZS</t>
+          <t>TM.TAX.MANF.WM.FN.ZS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tariff rate, applied, simple mean, manufactured products (%)</t>
+          <t>Tariff rate, most favored nation, weighted mean, manufactured products (%)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -25240,12 +25240,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -25257,12 +25257,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.BR.ZS</t>
+          <t>TM.TAX.MANF.SM.FN.ZS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bound rate, simple mean, manufactured products (%)</t>
+          <t>Tariff rate, most favored nation, simple mean, manufactured products (%)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -25277,12 +25277,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -25294,12 +25294,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TM.TAX.MANF.SR.ZS</t>
+          <t>TM.TAX.MANF.WM.AR.ZS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Share of tariff lines with specific rates, manufactured products (%)</t>
+          <t>Tariff rate, applied, weighted mean, manufactured products (%)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -25314,12 +25314,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -25331,12 +25331,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.BR.ZS</t>
+          <t>TM.TAX.MANF.SM.AR.ZS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bound rate, simple mean, primary products (%)</t>
+          <t>Tariff rate, applied, simple mean, manufactured products (%)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -25351,29 +25351,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Primary products (commodities)</t>
+          <t>Manufacturing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.WM.FN.ZS</t>
+          <t>TM.TAX.MANF.BR.ZS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tariff rate, most favored nation, weighted mean, primary products (%)</t>
+          <t>Bound rate, simple mean, manufactured products (%)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -25388,29 +25388,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Primary products (commodities)</t>
+          <t>Manufacturing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.BC.ZS</t>
+          <t>TM.TAX.MANF.SR.ZS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Binding coverage, primary products (%)</t>
+          <t>Share of tariff lines with specific rates, manufactured products (%)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -25425,29 +25425,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Primary products (commodities)</t>
+          <t>Manufacturing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.SM.FN.ZS</t>
+          <t>TM.TAX.TCOM.BR.ZS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tariff rate, most favored nation, simple mean, primary products (%)</t>
+          <t>Bound rate, simple mean, primary products (%)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -25462,12 +25462,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -25479,12 +25479,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.WM.AR.ZS</t>
+          <t>TM.TAX.TCOM.WM.FN.ZS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tariff rate, applied, weighted mean, primary products (%)</t>
+          <t>Tariff rate, most favored nation, weighted mean, primary products (%)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -25499,12 +25499,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -25516,12 +25516,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.SM.AR.ZS</t>
+          <t>TM.TAX.TCOM.BC.ZS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tariff rate, applied, simple mean, primary products (%)</t>
+          <t>Binding coverage, primary products (%)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -25536,12 +25536,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -25553,12 +25553,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.SR.ZS</t>
+          <t>TM.TAX.TCOM.SM.FN.ZS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Share of tariff lines with specific rates, primary products (%)</t>
+          <t>Tariff rate, most favored nation, simple mean, primary products (%)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -25573,12 +25573,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -25590,12 +25590,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TM.TAX.TCOM.IP.ZS</t>
+          <t>TM.TAX.TCOM.WM.AR.ZS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Share of tariff lines with international peaks, primary products (%)</t>
+          <t>Tariff rate, applied, weighted mean, primary products (%)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -25610,12 +25610,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tariffs</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -25627,12 +25627,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TT.PRI.MRCH.XD.WD</t>
+          <t>TM.TAX.TCOM.SM.AR.ZS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Net barter terms of trade index (2015 = 100)</t>
+          <t>Tariff rate, applied, simple mean, primary products (%)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -25647,29 +25647,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trade indexes</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goods (merchandise)</t>
+          <t>Primary products (commodities)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TX.QTY.MRCH.XD.WD</t>
+          <t>TM.TAX.TCOM.SR.ZS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Export volume index (2015 = 100)</t>
+          <t>Share of tariff lines with specific rates, primary products (%)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -25684,29 +25684,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Trade indexes</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Quantity (volume)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goods (merchandise)</t>
+          <t>Primary products (commodities)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TM.QTY.MRCH.XD.WD</t>
+          <t>TM.TAX.TCOM.IP.ZS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Import volume index (2015 = 100)</t>
+          <t>Share of tariff lines with international peaks, primary products (%)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -25721,17 +25721,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trade indexes</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Quantity (volume)</t>
+          <t>Tariff</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goods (merchandise)</t>
+          <t>Primary products (commodities)</t>
         </is>
       </c>
     </row>
@@ -25758,7 +25758,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trade indexes</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -25775,12 +25775,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TX.VAL.MRCH.XD.WD</t>
+          <t>TT.PRI.MRCH.XD.WD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Export value index (2015 = 100)</t>
+          <t>Net barter terms of trade index (2015 = 100)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -25795,12 +25795,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trade indexes</t>
+          <t>Terms of trade</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -28483,7 +28483,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Commitments (or compulsory)</t>
+          <t>Compulsory</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -31721,7 +31721,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -31758,7 +31758,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Consumption</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Atmosphere (or automated teller machine)</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Atmosphere (or automated teller machine)</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Atmosphere (or automated teller machine)</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -32942,7 +32942,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Atmosphere (or automated teller machine)</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -32979,7 +32979,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Atmosphere (or automated teller machine)</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -37105,7 +37105,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atmosphere (or automated teller machine)</t>
+          <t>Automated teller machines</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -38141,7 +38141,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Reserves (or residential)</t>
+          <t>Reserves</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -38405,7 +38405,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Transport receipts (or Turnover ratio)</t>
+          <t>Turnover ratio</t>
         </is>
       </c>
     </row>
@@ -39807,7 +39807,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Condom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -39844,7 +39844,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Consumption (or condom)</t>
+          <t>Condom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -43100,7 +43100,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Anemia (or animal)</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -43137,7 +43137,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Anemia (or animal)</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -43174,7 +43174,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Anemia (or animal)</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -52481,7 +52481,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Insolvency (or industry plus services)</t>
+          <t>Insolvency</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -52666,7 +52666,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -52703,7 +52703,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -52740,7 +52740,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -52777,7 +52777,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -52814,7 +52814,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -52851,7 +52851,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -52888,7 +52888,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -52925,7 +52925,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -52962,7 +52962,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Registration (or regulatory)</t>
+          <t xml:space="preserve">Registration </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -52999,7 +52999,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -53036,7 +53036,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -53073,7 +53073,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -53110,7 +53110,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -53147,7 +53147,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -53184,7 +53184,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -53221,7 +53221,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -53258,7 +53258,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tax revenue (or tariff) (or tax related)</t>
+          <t>Tax revenue (or tax related)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -55071,7 +55071,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Private participation in infrastructure (or producer price index)</t>
+          <t>Private participation in infrastructure</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -55108,7 +55108,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Private participation in infrastructure (or producer price index)</t>
+          <t>Private participation in infrastructure</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -55145,7 +55145,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Private participation in infrastructure (or producer price index)</t>
+          <t>Private participation in infrastructure</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -55182,7 +55182,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Private participation in infrastructure (or producer price index)</t>
+          <t>Private participation in infrastructure</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -55816,7 +55816,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Infrastructure (or infant reported)</t>
+          <t>Infrastructure</t>
         </is>
       </c>
     </row>
@@ -56107,7 +56107,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -56144,7 +56144,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -56181,7 +56181,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -56218,7 +56218,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -56255,7 +56255,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -56292,7 +56292,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -56329,7 +56329,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -56366,12 +56366,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Transport receipts (or Turnover ratio)</t>
+          <t>Transport receipts</t>
         </is>
       </c>
     </row>
@@ -56403,7 +56403,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -56440,7 +56440,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Interest payments (or international)</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">

--- a/data/hierarchy/hierarchy_code_by_sheet.xlsx
+++ b/data/hierarchy/hierarchy_code_by_sheet.xlsx
@@ -28199,12 +28199,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SE.ADT.1524.LT.FE.ZS</t>
+          <t>SE.COM.DURS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Literacy rate, youth female (% of females ages 15-24)</t>
+          <t>Compulsory education, duration (years)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -28224,24 +28224,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Compulsory</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Age 15-24</t>
+          <t>Duration</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SE.ADT.1524.LT.FM.ZS</t>
+          <t>SE.LPV.PRIM.MA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+          <t>Learning poverty: Share of Male Children at the End-of-Primary age below minimum reading proficiency adjusted by Out-of-School Children (%)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -28261,24 +28261,24 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Age 15-24</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SE.ADT.1524.LT.MA.ZS</t>
+          <t>SE.LPV.PRIM.FE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Literacy rate, youth male (% of males ages 15-24)</t>
+          <t>Learning poverty: Share of Female Children at the End-of-Primary age below minimum reading proficiency adjusted by Out-of-School Children (%)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -28298,24 +28298,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Age 15-24</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SE.ADT.1524.LT.ZS</t>
+          <t>SE.LPV.PRIM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Literacy rate, youth total (% of people ages 15-24)</t>
+          <t>Learning poverty: Share of Children at the End-of-Primary age below minimum reading proficiency adjusted by Out-of-School Children (%)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -28335,24 +28335,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Age 15-24</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SE.ADT.LITR.ZS</t>
+          <t>SE.LPV.PRIM.LD.FE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+          <t>Female pupils below minimum reading proficiency at end of primary (%). Low GAML threshold</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -28372,24 +28372,24 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Literacy</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SE.ADT.LITR.MA.ZS</t>
+          <t>SE.LPV.PRIM.SD.FE</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+          <t>Female primary school age children out-of-school (%)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -28409,24 +28409,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Literacy</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SE.ADT.LITR.FE.ZS</t>
+          <t>SE.LPV.PRIM.LD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+          <t>Pupils below minimum reading proficiency at end of primary (%). Low GAML threshold</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -28446,24 +28446,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Literacy</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SE.COM.DURS</t>
+          <t>SE.LPV.PRIM.SD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Compulsory education, duration (years)</t>
+          <t>Primary school age children out-of-school (%)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -28483,24 +28483,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Compulsory</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>Primary education</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.MA</t>
+          <t>SE.LPV.PRIM.LD.MA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Learning poverty: Share of Male Children at the End-of-Primary age below minimum reading proficiency adjusted by Out-of-School Children (%)</t>
+          <t>Male pupils below minimum reading proficiency at end of primary (%). Low GAML threshold</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -28520,7 +28520,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -28532,12 +28532,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.FE</t>
+          <t>SE.LPV.PRIM.SD.MA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Learning poverty: Share of Female Children at the End-of-Primary age below minimum reading proficiency adjusted by Out-of-School Children (%)</t>
+          <t>Male primary school age children out-of-school (%)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -28557,7 +28557,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Learning poverty</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -28569,12 +28569,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM</t>
+          <t>SE.ADT.LITR.ZS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Learning poverty: Share of Children at the End-of-Primary age below minimum reading proficiency adjusted by Out-of-School Children (%)</t>
+          <t>Literacy rate, adult total (% of people ages 15 and above)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -28594,24 +28594,24 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Adult (ages 15 and above)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.LD.FE</t>
+          <t>SE.ADT.LITR.MA.ZS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Female pupils below minimum reading proficiency at end of primary (%). Low GAML threshold</t>
+          <t>Literacy rate, adult male (% of males ages 15 and above)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -28631,24 +28631,24 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Adult (ages 15 and above)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.SD.FE</t>
+          <t>SE.ADT.LITR.FE.ZS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Female primary school age children out-of-school (%)</t>
+          <t>Literacy rate, adult female (% of females ages 15 and above)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -28668,24 +28668,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Adult (ages 15 and above)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.LD</t>
+          <t>SE.ADT.1524.LT.FE.ZS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pupils below minimum reading proficiency at end of primary (%). Low GAML threshold</t>
+          <t>Literacy rate, youth female (% of females ages 15-24)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -28705,24 +28705,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Youth (ages 15-24)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.SD</t>
+          <t>SE.ADT.1524.LT.FM.ZS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Primary school age children out-of-school (%)</t>
+          <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -28742,24 +28742,24 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Youth (ages 15-24)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.LD.MA</t>
+          <t>SE.ADT.1524.LT.MA.ZS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Male pupils below minimum reading proficiency at end of primary (%). Low GAML threshold</t>
+          <t>Literacy rate, youth male (% of males ages 15-24)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -28779,24 +28779,24 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Youth (ages 15-24)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SE.LPV.PRIM.SD.MA</t>
+          <t>SE.ADT.1524.LT.ZS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Male primary school age children out-of-school (%)</t>
+          <t>Literacy rate, youth total (% of people ages 15-24)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -28816,12 +28816,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Low Poverty Vulnerability</t>
+          <t>Literacy rate</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Primary education</t>
+          <t>Youth (ages 15-24)</t>
         </is>
       </c>
     </row>
@@ -37635,12 +37635,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FM.AST.CGOV.ZG.M3</t>
+          <t>FS.AST.CGOV.GD.ZS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Claims on central government (annual growth as % of broad money)</t>
+          <t>Claims on central government, etc. (% GDP)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -37672,12 +37672,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FS.AST.CGOV.GD.ZS</t>
+          <t>FS.AST.DOMS.GD.ZS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Claims on central government, etc. (% GDP)</t>
+          <t>Domestic credit provided by financial sector (% of GDP)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -37702,19 +37702,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Central government</t>
+          <t>Domestic</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FS.AST.DOMS.GD.ZS</t>
+          <t>FS.AST.DOMO.GD.ZS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Domestic credit provided by financial sector (% of GDP)</t>
+          <t>Claims on other sectors of the domestic economy (% of GDP)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -37739,19 +37739,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Other domestic sectors</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FM.AST.DOMS.CN</t>
+          <t>FS.AST.PRVT.GD.ZS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Net domestic credit (current LCU)</t>
+          <t>Domestic credit to private sector (% of GDP)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -37776,19 +37776,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FM.AST.NFRG.CN</t>
+          <t>FB.BNK.CAPA.ZS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Net foreign assets (current LCU)</t>
+          <t>Bank capital to assets ratio (%)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -37808,12 +37808,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Bank</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Net foreign</t>
+          <t>Capital to assets</t>
         </is>
       </c>
     </row>
@@ -37845,7 +37845,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Bank (miscellaneous)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -37857,12 +37857,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FS.AST.DOMO.GD.ZS</t>
+          <t>FD.AST.PRVT.GD.ZS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Claims on other sectors of the domestic economy (% of GDP)</t>
+          <t>Domestic credit to private sector by banks (% of GDP)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -37882,24 +37882,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Deposit money banks</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Other domestic sectors</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FM.AST.DOMO.ZG.M3</t>
+          <t>FM.AST.CGOV.ZG.M3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Claims on other sectors of the domestic economy (annual growth as % of broad money)</t>
+          <t>Claims on central government (annual growth as % of broad money)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -37919,24 +37919,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Monetary Survey</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Other domestic sectors</t>
+          <t>Central government</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FM.AST.PRVT.GD.ZS</t>
+          <t>FM.AST.DOMS.CN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Monetary Sector credit to private sector (% GDP)</t>
+          <t>Net domestic credit (current LCU)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -37956,24 +37956,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Monetary Survey</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Domestic</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FM.AST.PRVT.ZG.M3</t>
+          <t>FM.AST.NFRG.CN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Claims on private sector (annual growth as % of broad money)</t>
+          <t>Net foreign assets (current LCU)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -37993,24 +37993,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Monetary Survey</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Net foreign</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FS.AST.PRVT.GD.ZS</t>
+          <t>FM.AST.DOMO.ZG.M3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Domestic credit to private sector (% of GDP)</t>
+          <t>Claims on other sectors of the domestic economy (annual growth as % of broad money)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -38030,24 +38030,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Monetary Survey</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Other domestic sectors</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FD.AST.PRVT.GD.ZS</t>
+          <t>FM.AST.PRVT.GD.ZS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Domestic credit to private sector by banks (% of GDP)</t>
+          <t>Monetary Sector credit to private sector (% GDP)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -38067,7 +38067,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>Monetary Survey</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -38079,12 +38079,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FB.BNK.CAPA.ZS</t>
+          <t>FM.AST.PRVT.ZG.M3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bank capital to assets ratio (%)</t>
+          <t>Claims on private sector (annual growth as % of broad money)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -38104,12 +38104,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bank</t>
+          <t>Monetary Survey</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Capital to assets</t>
+          <t>Private</t>
         </is>
       </c>
     </row>

--- a/data/hierarchy/hierarchy_code_by_sheet.xlsx
+++ b/data/hierarchy/hierarchy_code_by_sheet.xlsx
@@ -40781,12 +40781,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SH.XPD.EHEX.PP.CD</t>
+          <t>SH.XPD.CHEX.PP.CD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>External health expenditure per capita, PPP (current international $)</t>
+          <t>Current health expenditure per capita, PPP (current international $)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -40818,12 +40818,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SH.XPD.EHEX.PC.CD</t>
+          <t>SH.XPD.CHEX.PC.CD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>External health expenditure per capita (current US$)</t>
+          <t>Current health expenditure per capita (current US$)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -40855,12 +40855,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SH.XPD.EHEX.CH.ZS</t>
+          <t>SH.XPD.CHEX.GD.ZS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>External health expenditure (% of current health expenditure)</t>
+          <t>Current health expenditure (% of GDP)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -40892,12 +40892,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SH.XPD.CHEX.PP.CD</t>
+          <t>SH.XPD.EHEX.PP.CD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Current health expenditure per capita, PPP (current international $)</t>
+          <t>External health expenditure per capita, PPP (current international $)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -40922,19 +40922,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Health Expenditure per capita </t>
+          <t>External Health Expenditure</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SH.XPD.CHEX.PC.CD</t>
+          <t>SH.XPD.EHEX.PC.CD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Current health expenditure per capita (current US$)</t>
+          <t>External health expenditure per capita (current US$)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -40959,19 +40959,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Health Expenditure per capita </t>
+          <t>External Health Expenditure</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SH.XPD.CHEX.GD.ZS</t>
+          <t>SH.XPD.EHEX.CH.ZS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Current health expenditure (% of GDP)</t>
+          <t>External health expenditure (% of current health expenditure)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -40996,7 +40996,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Health Expenditure per capita </t>
+          <t>External Health Expenditure</t>
         </is>
       </c>
     </row>
@@ -41033,7 +41033,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Domestic General Government Health Expenditure</t>
+          <t>Government Health Expenditure Database</t>
         </is>
       </c>
     </row>
@@ -41070,7 +41070,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Domestic General Government Health Expenditure</t>
+          <t>Government Health Expenditure Database</t>
         </is>
       </c>
     </row>
@@ -41107,7 +41107,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Domestic General Government Health Expenditure</t>
+          <t>Government Health Expenditure Database</t>
         </is>
       </c>
     </row>
@@ -41144,7 +41144,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Domestic General Government Health Expenditure</t>
+          <t>Government Health Expenditure Database</t>
         </is>
       </c>
     </row>
@@ -41181,19 +41181,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Domestic General Government Health Expenditure</t>
+          <t>Government Health Expenditure Database</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SH.XPD.PVTD.PP.CD</t>
+          <t>SH.XPD.OOPC.PP.CD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Domestic private health expenditure per capita, PPP (current international $)</t>
+          <t>Out-of-pocket expenditure per capita, PPP (current international $)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -41218,19 +41218,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Domestic Private Health Expenditure</t>
+          <t>Out-of-pocket</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SH.XPD.PVTD.PC.CD</t>
+          <t>SH.XPD.OOPC.PC.CD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Domestic private health expenditure per capita (current US$)</t>
+          <t>Out-of-pocket expenditure per capita (current US$)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -41255,19 +41255,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Domestic Private Health Expenditure</t>
+          <t>Out-of-pocket</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SH.XPD.PVTD.CH.ZS</t>
+          <t>SH.XPD.OOPC.CH.ZS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Domestic private health expenditure (% of current health expenditure)</t>
+          <t>Out-of-pocket expenditure (% of current health expenditure)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -41292,19 +41292,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Domestic Private Health Expenditure</t>
+          <t>Out-of-pocket</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SH.XPD.OOPC.PP.CD</t>
+          <t>SH.XPD.PVTD.PP.CD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Out-of-pocket expenditure per capita, PPP (current international $)</t>
+          <t>Domestic private health expenditure per capita, PPP (current international $)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -41329,19 +41329,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Out-of-pocket</t>
+          <t>Private Health Expenditure</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SH.XPD.OOPC.PC.CD</t>
+          <t>SH.XPD.PVTD.PC.CD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Out-of-pocket expenditure per capita (current US$)</t>
+          <t>Domestic private health expenditure per capita (current US$)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -41366,19 +41366,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Out-of-pocket</t>
+          <t>Private Health Expenditure</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SH.XPD.OOPC.CH.ZS</t>
+          <t>SH.XPD.PVTD.CH.ZS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Out-of-pocket expenditure (% of current health expenditure)</t>
+          <t>Domestic private health expenditure (% of current health expenditure)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -41403,7 +41403,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Out-of-pocket</t>
+          <t>Private Health Expenditure</t>
         </is>
       </c>
     </row>
